--- a/data/trans_camb/P16A17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Edad-trans_camb.xlsx
@@ -666,7 +666,7 @@
         <v>0.4827544788753999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1835038858313353</v>
+        <v>0.1835038858313352</v>
       </c>
     </row>
     <row r="11">
@@ -678,7 +678,7 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.1536448996864659</v>
+        <v>0.1538406688135345</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
@@ -693,10 +693,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>1.419334308174818</v>
+        <v>1.463198037383344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.021314273134414</v>
+        <v>0.917738120443314</v>
       </c>
     </row>
     <row r="13">
@@ -758,7 +758,7 @@
         <v>-0.8774318470914638</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.7871971821816731</v>
+        <v>-0.7871971821816729</v>
       </c>
     </row>
     <row r="17">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.728860148145883</v>
+        <v>-1.611857180660847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.963658248841251</v>
+        <v>-1.797443255411445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.811162144606699</v>
+        <v>-1.739487531839722</v>
       </c>
     </row>
     <row r="18">
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1104384680122176</v>
+        <v>0.1236850272838054</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1625058161526629</v>
+        <v>-0.1192321915080832</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.02350583935443127</v>
+        <v>-0.03189331113439013</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +809,7 @@
         <v>-0.8455413267199292</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.7585862674331428</v>
+        <v>-0.7585862674331427</v>
       </c>
     </row>
     <row r="20">
@@ -822,8 +822,12 @@
       <c r="C20" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="D20" s="6" t="inlineStr"/>
-      <c r="E20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -833,10 +837,14 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8592637394724891</v>
-      </c>
-      <c r="D21" s="6" t="inlineStr"/>
-      <c r="E21" s="6" t="inlineStr"/>
+        <v>0.9664779712879611</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.238792391777505</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.5696822442796211</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -867,13 +875,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4958719870399141</v>
+        <v>-0.3576809295316747</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.035530852771862</v>
+        <v>-1.975424774773267</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.72618773513737</v>
+        <v>-1.660679272031701</v>
       </c>
     </row>
     <row r="24">
@@ -884,13 +892,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.314065447856728</v>
+        <v>3.132904249932117</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4320118688009276</v>
+        <v>0.3529181718092231</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7452572232730512</v>
+        <v>0.9026983535331912</v>
       </c>
     </row>
     <row r="25">
@@ -918,13 +926,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3079213676845489</v>
+        <v>-0.283692498225408</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9005964786835395</v>
+        <v>-0.8614326175003207</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6737775328098766</v>
+        <v>-0.6624717388742212</v>
       </c>
     </row>
     <row r="27">
@@ -935,13 +943,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.049170500175508</v>
+        <v>3.906992279068511</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9191263211386049</v>
+        <v>0.7507722588499921</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.022905631159826</v>
+        <v>1.534591260509216</v>
       </c>
     </row>
     <row r="28">
@@ -973,13 +981,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.361671239677503</v>
+        <v>-3.461108676759039</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.805299721315347</v>
+        <v>-3.015253811392884</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.98882138314573</v>
+        <v>-3.028534001763955</v>
       </c>
     </row>
     <row r="30">
@@ -990,13 +998,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.5455976908020378</v>
+        <v>-0.5372958371334914</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4174163816702182</v>
+        <v>0.386130952698727</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.1360161858008507</v>
+        <v>-0.1249415447309902</v>
       </c>
     </row>
     <row r="31">
@@ -1027,10 +1035,10 @@
         <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9076113486639135</v>
+        <v>-0.9035318715600295</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.9173621961240948</v>
+        <v>-0.9254921126779502</v>
       </c>
     </row>
     <row r="33">
@@ -1041,13 +1049,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7006796850963584</v>
+        <v>-0.05228545568089556</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7499363766661394</v>
+        <v>0.7870523721607928</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.04384203346316143</v>
+        <v>-0.02282844961984689</v>
       </c>
     </row>
     <row r="34">
@@ -1096,13 +1104,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.499005274060808</v>
+        <v>1.844081162203625</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.899325258487826</v>
+        <v>1.898937647975364</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.9127791370960663</v>
+        <v>0.8733536861051917</v>
       </c>
     </row>
     <row r="37">
@@ -1168,7 +1176,7 @@
         <v>0.2379773371535091</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.04122707081240526</v>
+        <v>-0.04122707081240522</v>
       </c>
     </row>
     <row r="41">
@@ -1179,13 +1187,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.114686888978013</v>
+        <v>-1.88259297237124</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.263028519734785</v>
+        <v>-0.9423075547464324</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.695523396933013</v>
+        <v>-1.680535400246706</v>
       </c>
     </row>
     <row r="42">
@@ -1199,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.362534770974059</v>
+        <v>1.371091053253461</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.5500279251438498</v>
+        <v>0.6252653604050563</v>
       </c>
     </row>
     <row r="43">
@@ -1219,7 +1227,7 @@
         <v>0.5626979110675494</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.09748149509972071</v>
+        <v>-0.09748149509972061</v>
       </c>
     </row>
     <row r="44">
@@ -1262,7 +1270,7 @@
         <v>-0.2029292026679852</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.2240606352730003</v>
+        <v>-0.2240606352730002</v>
       </c>
     </row>
     <row r="47">
@@ -1273,13 +1281,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.4721589475039013</v>
+        <v>-0.4803858895377482</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.5729088640886424</v>
+        <v>-0.5731181942898735</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.5808318522292844</v>
+        <v>-0.5916130185699389</v>
       </c>
     </row>
     <row r="48">
@@ -1290,13 +1298,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.3484516176718546</v>
+        <v>0.288423048382809</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.1682452315171885</v>
+        <v>0.2013767744362334</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.08370709377203271</v>
+        <v>0.1003138226140046</v>
       </c>
     </row>
     <row r="49">
@@ -1313,7 +1321,7 @@
         <v>-0.2845184896525434</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.3141459814572107</v>
+        <v>-0.3141459814572106</v>
       </c>
     </row>
     <row r="50">
@@ -1324,13 +1332,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5213636731114835</v>
+        <v>-0.5210632402214145</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6093084140153984</v>
+        <v>-0.6122963612647953</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6037291192233346</v>
+        <v>-0.6048630261497114</v>
       </c>
     </row>
     <row r="51">
@@ -1341,13 +1349,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6914955158868413</v>
+        <v>0.5841399342566606</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4032949579453973</v>
+        <v>0.4631268408505282</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1810643921110849</v>
+        <v>0.2607249657391886</v>
       </c>
     </row>
     <row r="52">
